--- a/medicine/Handicap/Jérôme_Golmard/Jérôme_Golmard.xlsx
+++ b/medicine/Handicap/Jérôme_Golmard/Jérôme_Golmard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Golmard</t>
+          <t>Jérôme_Golmard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jérôme Golmard, né le 9 septembre 1973 à Dijon et mort le 1er août 2017 dans la même ville, est un joueur de tennis français, professionnel de 1993 à 2005.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Golmard</t>
+          <t>Jérôme_Golmard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Durant sa carrière, Jérôme Golmard remporte deux tournois en simple. Il atteint la 22e place au classement ATP le 26 avril 1999. Joueur au physique réputé « fragile », il a connu de nombreuses blessures durant sa carrière.
 Il est no 1 français durant 14 semaines en 1999, année durant laquelle il remporte son premier titre à Dubaï et atteint les demi-finales du Masters de Monte-Carlo.
 En 2000, il s'impose lors du tournoi de Chennai pour son premier tournoi de la saison. Quelques mois plus tard, il bat le no 1 mondial Andre Agassi lors des Internationaux du Canada.
-Il a été sélectionné à six reprises en équipe de France de Coupe Davis. En 1998, il remporte le match de double avec Guillaume Raoux contre Israël, ce qui permet à la France de retrouver le Groupe mondial. En 1999, il perd en cinq sets le premier simple disputé face au Néerlandais Richard Krajicek dans les arènes de Nîmes (3-6, 4-6, 7-6, 6-4, 6-4)[1]. Il est de nouveau sélectionné lors du premier tour en 2000 mais perd son match contre Gustavo Kuerten (6-3, 3-6, 6-3, 6-2)[2].
+Il a été sélectionné à six reprises en équipe de France de Coupe Davis. En 1998, il remporte le match de double avec Guillaume Raoux contre Israël, ce qui permet à la France de retrouver le Groupe mondial. En 1999, il perd en cinq sets le premier simple disputé face au Néerlandais Richard Krajicek dans les arènes de Nîmes (3-6, 4-6, 7-6, 6-4, 6-4). Il est de nouveau sélectionné lors du premier tour en 2000 mais perd son match contre Gustavo Kuerten (6-3, 3-6, 6-3, 6-2).
 Outre deux tournois ATP, Jérôme Golmard remporte sept tournois Challenger : Campinas en 1994, Medellín et Bogota en 1995, Ségovie en 1996, Cherbourg et Brest en 1998 et Calabasas en 2003. En double, il s'impose en Andorre en 1997 avec Nicolas Escudé.
-Le 6 avril 2014, il informe le monde du tennis qu'on lui a diagnostiqué la maladie de Charcot en janvier 2014, qui lui a déjà ôté l'usage des jambes et fait perdre plus de 15 kg, avec une espérance de vie de 3 à 5 ans dans la plupart des cas[3]. En mai 2014, il crée l’Association Jérôme Golmard pour combattre la maladie de Charcot[4]. Il décide de subir parallèlement un traitement expérimental en Californie[5]. Il meurt le 1er août 2017 des suites de la maladie[6].
+Le 6 avril 2014, il informe le monde du tennis qu'on lui a diagnostiqué la maladie de Charcot en janvier 2014, qui lui a déjà ôté l'usage des jambes et fait perdre plus de 15 kg, avec une espérance de vie de 3 à 5 ans dans la plupart des cas. En mai 2014, il crée l’Association Jérôme Golmard pour combattre la maladie de Charcot. Il décide de subir parallèlement un traitement expérimental en Californie. Il meurt le 1er août 2017 des suites de la maladie.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Golmard</t>
+          <t>Jérôme_Golmard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,14 +559,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Palmarès</t>
+          <t>Parcours dans les tournois du Grand Chelem</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Titres en simple messieurs
-Finales en simple messieurs
-Finale en double messieurs</t>
+          <t>En simple</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N.B. : à droite du résultat se trouve le nom de l'ultime adversaire.
+</t>
         </is>
       </c>
     </row>
@@ -562,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Golmard</t>
+          <t>Jérôme_Golmard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,11 +601,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>En simple
-N.B. : à droite du résultat se trouve le nom de l'ultime adversaire.
-En double
-N.B. : le nom du ou de la partenaire se trouve sous le résultat ; le nom des ultimes adversaires se trouve à droite.
-Victoire sur le top 10</t>
+          <t>En double</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N.B. : le nom du ou de la partenaire se trouve sous le résultat ; le nom des ultimes adversaires se trouve à droite.
+</t>
         </is>
       </c>
     </row>
@@ -596,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Golmard</t>
+          <t>Jérôme_Golmard</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,6 +637,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
